--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/22.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/22.xlsx
@@ -8,19 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D5116D8-3451-477D-81E3-CC5BA9A7E84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F78DA0-8B7B-4462-8B2B-C3ECE5C04C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{990B349D-42C2-4A64-AAEF-8D682160D999}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{990B349D-42C2-4A64-AAEF-8D682160D999}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="8" r:id="rId1"/>
-    <sheet name="script_story1_stage2" sheetId="1" r:id="rId2"/>
-    <sheet name="script_story1_stage3" sheetId="2" r:id="rId3"/>
-    <sheet name="script_story1_stage4" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
-    <sheet name="script_story1_escape" sheetId="5" r:id="rId6"/>
-    <sheet name="script_story1_zero" sheetId="6" r:id="rId7"/>
-    <sheet name="script_story1_epilogue" sheetId="7" r:id="rId8"/>
+    <sheet name="script_story1_stage4" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="script_story1_escape" sheetId="5" r:id="rId4"/>
+    <sheet name="script_story1_zero" sheetId="6" r:id="rId5"/>
+    <sheet name="script_story1_epilogue" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -676,7 +674,7 @@
     <author>서 의수</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{1464F04F-A565-4960-BAA2-71F4BE02BA9F}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{EC2F8823-93A7-48DE-B015-A0BD685BDB07}">
       <text>
         <r>
           <rPr>
@@ -881,7 +879,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{72B82AC7-3786-435F-9292-CB415A312E17}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{CAAA2CF2-EBD6-406B-B780-331528F40A2A}">
       <text>
         <r>
           <rPr>
@@ -904,7 +902,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{A127EBD3-1B0E-460F-B943-0D197A151FA6}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{62F8E58C-6660-4A67-85E6-378DF17068DC}">
       <text>
         <r>
           <rPr>
@@ -1017,7 +1015,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{B6AC660E-B337-4356-AE06-AFC14D085A3E}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{594C85AE-5053-43BE-810B-108A848636FC}">
       <text>
         <r>
           <rPr>
@@ -1303,7 +1301,7 @@
     <author>서 의수</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{5C5F5278-197F-4AF4-8BF8-AD359B376D0E}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{EDFEE1A0-5CA6-4DD4-A3F5-36EEF5079559}">
       <text>
         <r>
           <rPr>
@@ -1508,7 +1506,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{4915416C-1B15-4C56-8EE1-3B4FB48BFB28}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{0F84A846-AF2C-4B55-BC0C-90B549FEEF2C}">
       <text>
         <r>
           <rPr>
@@ -1531,7 +1529,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{D54449AF-A68F-47AF-A5D8-ADC460BCB65A}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{5A46B385-2EF3-45BD-9C95-B9B18ABF7B29}">
       <text>
         <r>
           <rPr>
@@ -1644,7 +1642,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{A6DB729B-C7C7-4663-8DD3-83666109970D}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{101B4C2F-6EDD-4AF1-AA80-B5177CC02747}">
       <text>
         <r>
           <rPr>
@@ -1930,7 +1928,7 @@
     <author>서 의수</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{EC2F8823-93A7-48DE-B015-A0BD685BDB07}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{032E67A6-5888-4853-AD84-65323E33135E}">
       <text>
         <r>
           <rPr>
@@ -2135,7 +2133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{CAAA2CF2-EBD6-406B-B780-331528F40A2A}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{7B6C0484-F29C-48E1-9100-1CC1132C6AE7}">
       <text>
         <r>
           <rPr>
@@ -2158,7 +2156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{62F8E58C-6660-4A67-85E6-378DF17068DC}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{D9175B19-4FB6-4242-9995-7513A8863C02}">
       <text>
         <r>
           <rPr>
@@ -2271,7 +2269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{594C85AE-5053-43BE-810B-108A848636FC}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{CF227BB8-32DC-4C0F-A1D4-965FD74A26CB}">
       <text>
         <r>
           <rPr>
@@ -2557,7 +2555,7 @@
     <author>서 의수</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{EDFEE1A0-5CA6-4DD4-A3F5-36EEF5079559}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{605A194B-842E-48E5-A3EB-5B4952F27C75}">
       <text>
         <r>
           <rPr>
@@ -2762,7 +2760,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{0F84A846-AF2C-4B55-BC0C-90B549FEEF2C}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{8AE0CBD8-05D2-4B21-95B6-43CFC3E0B2F2}">
       <text>
         <r>
           <rPr>
@@ -2785,7 +2783,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{5A46B385-2EF3-45BD-9C95-B9B18ABF7B29}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{2391464F-EC21-47E9-B14F-7467A1A1B834}">
       <text>
         <r>
           <rPr>
@@ -2898,7 +2896,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{101B4C2F-6EDD-4AF1-AA80-B5177CC02747}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{B16AE238-9187-4149-AC44-C061E630F486}">
       <text>
         <r>
           <rPr>
@@ -3184,7 +3182,7 @@
     <author>서 의수</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{032E67A6-5888-4853-AD84-65323E33135E}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{B48462C6-025D-4990-A0CC-1E80B8381E09}">
       <text>
         <r>
           <rPr>
@@ -3389,7 +3387,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{7B6C0484-F29C-48E1-9100-1CC1132C6AE7}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{E164AA09-F7DF-4070-9338-E491F5DBB6DB}">
       <text>
         <r>
           <rPr>
@@ -3412,7 +3410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{D9175B19-4FB6-4242-9995-7513A8863C02}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{26C38C9E-1188-475B-9504-3DEB62AC05BD}">
       <text>
         <r>
           <rPr>
@@ -3525,7 +3523,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{CF227BB8-32DC-4C0F-A1D4-965FD74A26CB}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{DE1569A6-B9EC-4428-89EB-2C4F0CA38A71}">
       <text>
         <r>
           <rPr>
@@ -3804,1266 +3802,8 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>UISU</author>
-    <author>서 의수</author>
-  </authors>
-  <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{605A194B-842E-48E5-A3EB-5B4952F27C75}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">0: NONE
-1: </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">대화
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">2: </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>선택지</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (1, 2, 3)
-3: </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>선택지</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">종료
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">4: </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>맵</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이동</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이동할</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Scene </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이름</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> - contents)</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">
-5: Save
-9: Random
-10: Random End
-11: Immediately Execute
-// Inspector창에서 직접 조정
-6: CutScene
-7: WaitInteract
-8: Interact</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{8AE0CBD8-05D2-4B21-95B6-43CFC3E0B2F2}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">    Dubby = -1,
-    Keep = 0,
-    None = 1,
-    Protagonist = 2,
-    Naru = 3,
-    Photographer = 4,
-    Doctor = 5,
-    Dog = 6,
-    PhotographerSon = 7,
-    PhotographerWife = 8,</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{2391464F-EC21-47E9-B14F-7467A1A1B834}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Default = -1
-Keep = 0 (</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이전</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>유지</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>), (</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>기본</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)
-Action1 = 1
-…
-Option</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>에서</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Left or Right </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>필수</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{B16AE238-9187-4149-AC44-C061E630F486}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이미</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve"> 사용하고 있는 구분자
-:, ()</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">- </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>아이템</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>획득</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">, </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>수거</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve"> (</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>모든</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>타입에서</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>가능</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>. 단, 일부 (Random 혹은 Choice 관련 안됨.))
-v0 : v1 (</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>여러개</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>가능</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve"> - ex) Bag:Add, Cap:Add)
-v0 - Item name
-v1 - Add, Remove</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">
-- 1 (Script)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">0: 스킵 불가능
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>1(value) : {$value}배속
-- 캐릭터 등장 (Script, ImmediatelyExecute에서 가능)
-v0, v1 (순서 무관)
-v0 - Left, Right
-v1 - Appear, Active, Inactive, Disappear
-- 컷씬
-v0, v1, v2, v3 (순서 무관)
-v0 - Hold, None (Default - None)   (대소문자 무관)
-v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
-v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
-v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>UISU</author>
-    <author>서 의수</author>
-  </authors>
-  <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{B48462C6-025D-4990-A0CC-1E80B8381E09}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">0: NONE
-1: </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">대화
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">2: </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>선택지</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (1, 2, 3)
-3: </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>선택지</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">종료
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">4: </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>맵</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이동</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이동할</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Scene </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이름</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> - contents)</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">
-5: Save
-9: Random
-10: Random End
-11: Immediately Execute
-// Inspector창에서 직접 조정
-6: CutScene
-7: WaitInteract
-8: Interact</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{E164AA09-F7DF-4070-9338-E491F5DBB6DB}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">    Dubby = -1,
-    Keep = 0,
-    None = 1,
-    Protagonist = 2,
-    Naru = 3,
-    Photographer = 4,
-    Doctor = 5,
-    Dog = 6,
-    PhotographerSon = 7,
-    PhotographerWife = 8,</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{26C38C9E-1188-475B-9504-3DEB62AC05BD}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Default = -1
-Keep = 0 (</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이전</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>유지</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>), (</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>기본</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)
-Action1 = 1
-…
-Option</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>에서</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Left or Right </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>필수</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{DE1569A6-B9EC-4428-89EB-2C4F0CA38A71}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이미</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve"> 사용하고 있는 구분자
-:, ()</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">- </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>아이템</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>획득</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">, </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>수거</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve"> (</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>모든</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>타입에서</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>가능</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>. 단, 일부 (Random 혹은 Choice 관련 안됨.))
-v0 : v1 (</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>여러개</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>가능</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve"> - ex) Bag:Add, Cap:Add)
-v0 - Item name
-v1 - Add, Remove</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">
-- 1 (Script)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">0: 스킵 불가능
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>1(value) : {$value}배속
-- 캐릭터 등장 (Script, ImmediatelyExecute에서 가능)
-v0, v1 (순서 무관)
-v0 - Left, Right
-v1 - Appear, Active, Inactive, Disappear
-- 컷씬
-v0, v1, v2, v3 (순서 무관)
-v0 - Hold, None (Default - None)   (대소문자 무관)
-v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
-v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
-v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="232">
-  <si>
-    <t>stage1-2 interaction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="183">
   <si>
     <t>이름</t>
   </si>
@@ -5132,11 +3872,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(컷 씬)&gt; (컷 씬 전환): 숲 속 밤하늘. 벌레 울음 효과음이 들린다.
-(컷 씬)&gt; (스테이지 필드): 숲 속 캠핑 카 앞에 모인 사진사의 가족들이 보인다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아들</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5149,321 +3884,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(아들 이름)…. 분명 여행은 즐거울 거야. 작업도 남아있으니, 조금만 참아 주렴.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>래퍼런스 필요함 (마지막에 게임으로 이어지는 부분)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(빨리 일을 끝내자….)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(스테이지 필드) : 사진사가 사진기와 상호작용 키를 누른다.
-(스테이지 필드) : 사진사가 필름과 상호작용 키를 누른다.
-(스테이지 필드) : 사진사가 캠핑장에서 한 칸 떨어진 공간으로 이동한다.
-(스테이지 필드) : 사진사가 사진을 찍을 공간과 상호작용 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(스테이지 필드) : 사진사가 필드 캐릭터가 스탠딩&gt; 카메라로 변경된다.</t>
   </si>
   <si>
-    <t>(스테이지 필드) : 페이드아웃, 페이드인 되면서 셔터 효과음이 추가된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>…이…!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…소란스럽네.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아내</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>…(사진사 이름)! (사진사 이름)!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(아내 이름)?!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…얼마나 못 들은 거지? 빨리 돌아가야 겠어…!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아, 카메라가….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주인공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(캠핑장으로 돌아간다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;시스템&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>열쇠 &lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;다감&gt;&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>을 획득하였다.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>열쇠 &lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;무정&gt;&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>을 획득하였다.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…일단 돌아가자!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(스테이지 필드) : 사진사가 필드 캐릭터가 카메라&gt; 스탠딩으로 변경된다.</t>
-  </si>
-  <si>
-    <t>(스테이지 필드) : 사진사가 캠핑장으로 이동한다.
-(스테이지 필드)&gt; (컷 씬): 가족들이 다량의 모기에 공격당하고 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이게… 대체 어떻게 된 일이지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(아내 이름)! (아들 이름)! (강아지 이름)도!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…괜찮아! 내가 모기들을 쫓아낼 방법을 강구해 볼 테니까…!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">(컷 씬)&gt; (수록 게임2): ‘숲속에서’ (퍼즐 게임)
-(수록 게임2) : 실패 시, 게임 오버 창이 뜨게 되고, 성공할 때까지 재도전을 하게 된다.
-(수록 게임2)&gt; (컷 씬 전환): 카메라(화면)이 암전 된다.
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage1-3 interaction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(컷 씬)&gt; (스테이지 필드): 사람이 없는 휴양처 아닌 해변가 앞, 사진사의 가족들이 보인다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(사진사 이름) …. 이만 돌아가는 편이 좋을지도 모르겠어. 느낌이 이상해.</t>
-  </si>
-  <si>
-    <t>아빠….</t>
-  </si>
-  <si>
-    <t>조금만…. 조금만 더 기다려줘. …아직 일이 남아 있어. 이것도 가족을 위한 일이니….</t>
-  </si>
-  <si>
     <t>….</t>
   </si>
   <si>
-    <t>(빨리 일을 끝내자….)</t>
-  </si>
-  <si>
-    <t>(스테이지 필드) : 사진사가 사진기와 상호작용 키를 누른다.
-(스테이지 필드) : 사진사가 필름과 상호작용 키를 누른다.
-(스테이지 필드) : 사진사가 바다에서 한 칸 떨어진 공간으로 이동한다.
-(스테이지 필드) : 사진사가 사진을 찍을 공간과 상호작용 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…후.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…아니야. 좋은 날이니 나쁘게 생각하지 말자.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(스테이지 필드) : 페이드아웃, 페이드인 되면서 셔터 효과음이 추가된다.
-(스테이지 필드)&gt; (컷 씬): 카메라 시점, 새가 부둣가 등대에 앉아있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…좋아. 이 사진은 꼭….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>강아지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컹!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(컷 씬)&gt; (컷 씬 전환): 카메라 시점, 심하게 흔들리고 흐릿하게 새가 날아가는 것이 보인다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…안돼! 카메라가!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(컷 씬)&gt; (스테이지 필드) : 사진사가 필드 캐릭터가 카메라&gt; 스탠딩으로 변경된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컹컹!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…사진이….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헥헥!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(강아지의 머리를 쓰다듬는다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>열쇠 &lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;감내&gt;&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>을 획득하였다.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(강아지를 발로 찬다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>열쇠 &lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;극단&gt;&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>을 획득하였다.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…그래, (강아지 이름). 내가 너를 심심하게 했구나. 가자. 가족들과 함께 놀자.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>멍!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(스테이지 필드) : 사진사가 캠핑장으로 이동한다.
-(컷 씬)&gt; (수록 게임3): ‘바다’ (퍼즐 게임)
-(수록 게임3) : 실패 시, 게임 오버 창이 뜨게 되고, 성공할 때까지 재도전을 하게 된다.
-(수록 게임3)&gt; (컷 씬 전환): 카메라(화면)이 암전 된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6226,7 +4665,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6241,13 +4680,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="a고딕12"/>
-      <family val="1"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
@@ -6297,15 +4729,8 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="major"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6324,12 +4749,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -6345,7 +4764,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6361,22 +4780,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6698,73 +5105,73 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -6775,499 +5182,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652858D1-4ADE-4564-85AD-6B271CF7276C}">
-  <dimension ref="A1:P65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736A9468-DB76-4C73-B64A-2E71EFC4ED53}">
+  <dimension ref="A1:P86"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:M9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="87" customHeight="1">
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="49.5">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="148.5">
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="49.5">
-      <c r="B11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="49.5">
-      <c r="B13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="49.5">
-      <c r="B15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="49.5">
-      <c r="B19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="33">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="33">
-      <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="33">
-      <c r="A28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" s="3"/>
-      <c r="C29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="49.5">
-      <c r="B31" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="82.5">
-      <c r="B32" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="33">
-      <c r="A34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="33">
-      <c r="A35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="132">
-      <c r="B36" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="B45" s="3"/>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="B47" s="3"/>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="B48" s="3"/>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="3"/>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="3"/>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="3"/>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="3"/>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="3"/>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="3"/>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="3"/>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="3"/>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="3"/>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="3"/>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="3"/>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8800BE3D-3D38-4152-9591-82702182793C}">
-  <dimension ref="A1:P64"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -7283,156 +5201,150 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="49.5">
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="49.5">
+    <row r="6" spans="1:16" ht="33">
       <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>50</v>
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>51</v>
+        <v>25</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:16" ht="49.5">
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>52</v>
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C8">
         <v>1</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="H8" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>53</v>
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>53</v>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="I10" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="49.5">
       <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>54</v>
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:16" ht="148.5">
+    </row>
+    <row r="12" spans="1:16" ht="99">
       <c r="B12" s="2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -7440,7 +5352,7 @@
     </row>
     <row r="13" spans="1:16" ht="49.5">
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -7448,40 +5360,40 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="49.5">
+    <row r="15" spans="1:16" ht="99">
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="33">
+    <row r="16" spans="1:16" ht="49.5">
       <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>57</v>
+        <v>19</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="99">
-      <c r="B17" s="10" t="s">
-        <v>58</v>
+    <row r="17" spans="1:3" ht="148.5">
+      <c r="B17" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7489,111 +5401,111 @@
         <v>21</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" ht="33">
       <c r="A19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>61</v>
+        <v>19</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="49.5">
-      <c r="B20" s="2" t="s">
-        <v>62</v>
+    <row r="20" spans="1:3" ht="33">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="33">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="49.5">
-      <c r="B22" s="2" t="s">
-        <v>64</v>
+      <c r="B22" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>66</v>
+    <row r="24" spans="1:3" ht="33">
+      <c r="B24" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="33">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" ht="33">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>68</v>
+    <row r="27" spans="1:3" ht="132">
+      <c r="B27" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="33">
       <c r="A28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>69</v>
+        <v>19</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -7601,21 +5513,21 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="C29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="49.5">
       <c r="A30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -7626,23 +5538,26 @@
         <v>21</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" ht="115.5">
+      <c r="B32" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="C32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="49.5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="33">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -7650,97 +5565,506 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="33">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="148.5">
+      <c r="B36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="115.5">
+      <c r="B38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="49.5">
+      <c r="B40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="33">
+      <c r="A41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="33">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="148.5">
-      <c r="B35" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="B45" s="3"/>
+      <c r="C44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="33">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:3">
       <c r="B46" s="3"/>
+      <c r="C46">
+        <v>3</v>
+      </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="B47" s="3"/>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="B48" s="3"/>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="3"/>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="3"/>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="3"/>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="3"/>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="3"/>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="3"/>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="3"/>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="3"/>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="3"/>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="3"/>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="3"/>
+      <c r="A47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="148.5">
+      <c r="B48" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="33">
+      <c r="A49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="66">
+      <c r="A50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="33">
+      <c r="A51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="66">
+      <c r="A53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="49.5">
+      <c r="A55" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="33">
+      <c r="A56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="181.5">
+      <c r="B57" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="33">
+      <c r="A58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="33">
+      <c r="A59" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="49.5">
+      <c r="B66" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="33">
+      <c r="B72" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>19</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="264">
+      <c r="B75" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="33">
+      <c r="A78" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="33">
+      <c r="A79" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="165">
+      <c r="B80" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="3"/>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="3"/>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="3"/>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="2"/>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="3"/>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7749,899 +6073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736A9468-DB76-4C73-B64A-2E71EFC4ED53}">
-  <dimension ref="A1:P86"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="49.5">
-      <c r="B5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="33">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="49.5">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="99">
-      <c r="B12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="49.5">
-      <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="99">
-      <c r="B15" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="49.5">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="148.5">
-      <c r="B17" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="33">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="33">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="33">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="33">
-      <c r="B24" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="33">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="33">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="132">
-      <c r="B27" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="33">
-      <c r="A28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="49.5">
-      <c r="A30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="115.5">
-      <c r="B32" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="33">
-      <c r="A33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="33">
-      <c r="A35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="148.5">
-      <c r="B36" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="115.5">
-      <c r="B38" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C38">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="49.5">
-      <c r="B40" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="33">
-      <c r="A41" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="33">
-      <c r="A43" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="33">
-      <c r="A45" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="B46" s="3"/>
-      <c r="C46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>21</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="148.5">
-      <c r="B48" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C48">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="33">
-      <c r="A49" t="s">
-        <v>21</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="66">
-      <c r="A50" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="33">
-      <c r="A51" t="s">
-        <v>19</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>60</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="66">
-      <c r="A53" t="s">
-        <v>21</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>19</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="49.5">
-      <c r="A55" t="s">
-        <v>21</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="33">
-      <c r="A56" t="s">
-        <v>21</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="181.5">
-      <c r="B57" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C57">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="33">
-      <c r="A58" t="s">
-        <v>19</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="33">
-      <c r="A59" t="s">
-        <v>21</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>19</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>19</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>19</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>60</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>21</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="49.5">
-      <c r="B66" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C66">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>21</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>19</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>21</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>19</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>21</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="33">
-      <c r="B72" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C72">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>19</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>21</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="264">
-      <c r="B75" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C75">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>21</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>19</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="33">
-      <c r="A78" t="s">
-        <v>21</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="33">
-      <c r="A79" t="s">
-        <v>21</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="165">
-      <c r="B80" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C80">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="3"/>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" s="3"/>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83" s="3"/>
-    </row>
-    <row r="84" spans="2:2">
-      <c r="B84" s="2"/>
-    </row>
-    <row r="85" spans="2:2">
-      <c r="B85" s="3"/>
-    </row>
-    <row r="86" spans="2:2">
-      <c r="B86" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C379761-9326-48FE-A6FE-9CE26449FE93}">
   <dimension ref="A1:P10"/>
   <sheetViews>
@@ -8661,76 +6093,76 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -8738,10 +6170,10 @@
     </row>
     <row r="6" spans="1:16" ht="66">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -8749,10 +6181,10 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -8760,7 +6192,7 @@
     </row>
     <row r="8" spans="1:16" ht="49.5">
       <c r="B8" s="2" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -8768,10 +6200,10 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -8779,7 +6211,7 @@
     </row>
     <row r="10" spans="1:16" ht="33">
       <c r="B10" s="2" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -8792,7 +6224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A2649E-3405-4FBF-A96C-623E579F4447}">
   <dimension ref="A1:P85"/>
   <sheetViews>
@@ -8812,76 +6244,76 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -8889,10 +6321,10 @@
     </row>
     <row r="6" spans="1:16" ht="33">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -8900,10 +6332,10 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -8911,10 +6343,10 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -8922,7 +6354,7 @@
     </row>
     <row r="9" spans="1:16" ht="49.5">
       <c r="B9" s="2" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -8930,10 +6362,10 @@
     </row>
     <row r="10" spans="1:16" ht="33">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -8941,7 +6373,7 @@
     </row>
     <row r="11" spans="1:16" ht="99">
       <c r="B11" s="2" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -8957,16 +6389,16 @@
       <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="B15" s="6"/>
+      <c r="B15" s="5"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="B16" s="6"/>
+      <c r="B16" s="5"/>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="3"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="6"/>
+      <c r="B18" s="5"/>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="3"/>
@@ -9176,7 +6608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEFD393-4DD6-48AF-A2F0-06AE4E364C59}">
   <dimension ref="A1:P85"/>
   <sheetViews>
@@ -9196,73 +6628,73 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="99">
       <c r="B5" s="2" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -9270,10 +6702,10 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -9281,10 +6713,10 @@
     </row>
     <row r="7" spans="1:16" ht="33">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -9292,10 +6724,10 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -9303,10 +6735,10 @@
     </row>
     <row r="9" spans="1:16" ht="33">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -9314,7 +6746,7 @@
     </row>
     <row r="10" spans="1:16" ht="66">
       <c r="B10" s="2" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -9322,10 +6754,10 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -9333,10 +6765,10 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -9344,10 +6776,10 @@
     </row>
     <row r="13" spans="1:16" ht="66">
       <c r="A13" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -9355,10 +6787,10 @@
     </row>
     <row r="14" spans="1:16" ht="49.5">
       <c r="A14" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -9366,10 +6798,10 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -9377,10 +6809,10 @@
     </row>
     <row r="16" spans="1:16" ht="33">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -9388,10 +6820,10 @@
     </row>
     <row r="17" spans="1:3" ht="33">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -9399,10 +6831,10 @@
     </row>
     <row r="18" spans="1:3" ht="33">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -9410,10 +6842,10 @@
     </row>
     <row r="19" spans="1:3" ht="49.5">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -9421,10 +6853,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -9432,7 +6864,7 @@
     </row>
     <row r="21" spans="1:3" ht="99">
       <c r="B21" s="2" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -9440,10 +6872,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -9451,10 +6883,10 @@
     </row>
     <row r="23" spans="1:3" ht="33">
       <c r="A23" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -9462,10 +6894,10 @@
     </row>
     <row r="24" spans="1:3" ht="49.5">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -9473,10 +6905,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -9484,7 +6916,7 @@
     </row>
     <row r="26" spans="1:3" ht="132">
       <c r="B26" s="2" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -9492,10 +6924,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -9503,10 +6935,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -9514,10 +6946,10 @@
     </row>
     <row r="29" spans="1:3" ht="82.5">
       <c r="A29" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -9525,10 +6957,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -9536,7 +6968,7 @@
     </row>
     <row r="31" spans="1:3" ht="33">
       <c r="B31" s="2" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -9544,10 +6976,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -9555,10 +6987,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -9566,7 +6998,7 @@
     </row>
     <row r="34" spans="1:3" ht="33">
       <c r="B34" s="2" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -9574,10 +7006,10 @@
     </row>
     <row r="35" spans="1:3" ht="33">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -9585,7 +7017,7 @@
     </row>
     <row r="36" spans="1:3" ht="33">
       <c r="B36" s="2" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -9593,10 +7025,10 @@
     </row>
     <row r="37" spans="1:3" ht="33">
       <c r="A37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -9604,7 +7036,7 @@
     </row>
     <row r="38" spans="1:3" ht="33">
       <c r="B38" s="2" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -9612,10 +7044,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -9623,7 +7055,7 @@
     </row>
     <row r="40" spans="1:3" ht="99">
       <c r="B40" s="2" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -9631,10 +7063,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -9642,10 +7074,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -9653,10 +7085,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -9664,10 +7096,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -9675,10 +7107,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -9686,10 +7118,10 @@
     </row>
     <row r="46" spans="1:3" ht="33">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -9697,10 +7129,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>193</v>
+        <v>144</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -9708,10 +7140,10 @@
     </row>
     <row r="48" spans="1:3" ht="49.5">
       <c r="A48" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -9719,10 +7151,10 @@
     </row>
     <row r="49" spans="1:3" ht="33">
       <c r="A49" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -9730,10 +7162,10 @@
     </row>
     <row r="50" spans="1:3" ht="33">
       <c r="A50" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -9741,10 +7173,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -9752,10 +7184,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -9763,10 +7195,10 @@
     </row>
     <row r="53" spans="1:3" ht="33">
       <c r="A53" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -9774,10 +7206,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -9785,10 +7217,10 @@
     </row>
     <row r="55" spans="1:3" ht="33">
       <c r="A55" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -9802,7 +7234,7 @@
     </row>
     <row r="57" spans="1:3" ht="49.5">
       <c r="B57" s="2" t="s">
-        <v>203</v>
+        <v>154</v>
       </c>
       <c r="C57">
         <v>6</v>
@@ -9810,10 +7242,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>205</v>
+        <v>156</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -9821,10 +7253,10 @@
     </row>
     <row r="59" spans="1:3" ht="33">
       <c r="A59" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -9832,10 +7264,10 @@
     </row>
     <row r="60" spans="1:3" ht="33">
       <c r="A60" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -9843,10 +7275,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -9854,10 +7286,10 @@
     </row>
     <row r="62" spans="1:3" ht="33">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -9865,10 +7297,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -9876,10 +7308,10 @@
     </row>
     <row r="64" spans="1:3" ht="33">
       <c r="A64" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -9893,7 +7325,7 @@
     </row>
     <row r="66" spans="1:3" ht="49.5">
       <c r="B66" s="2" t="s">
-        <v>212</v>
+        <v>163</v>
       </c>
       <c r="C66">
         <v>6</v>
@@ -9901,10 +7333,10 @@
     </row>
     <row r="67" spans="1:3" ht="33">
       <c r="A67" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -9912,10 +7344,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B68" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -9923,7 +7355,7 @@
     </row>
     <row r="69" spans="1:3" ht="99">
       <c r="B69" s="2" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="C69">
         <v>6</v>
@@ -9931,7 +7363,7 @@
     </row>
     <row r="70" spans="1:3" ht="82.5">
       <c r="B70" s="2" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="C70">
         <v>6</v>
@@ -9989,7 +7421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF53B38-1012-44FD-8132-9A9C7C906E28}">
   <dimension ref="A1:P85"/>
   <sheetViews>
@@ -10009,73 +7441,73 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="33">
       <c r="B5" s="2" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -10083,10 +7515,10 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -10094,10 +7526,10 @@
     </row>
     <row r="7" spans="1:16" ht="49.5">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -10105,10 +7537,10 @@
     </row>
     <row r="8" spans="1:16" ht="33">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -10116,10 +7548,10 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>222</v>
+        <v>173</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -10127,10 +7559,10 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>223</v>
+        <v>174</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -10138,10 +7570,10 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -10149,10 +7581,10 @@
     </row>
     <row r="12" spans="1:16" ht="33">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>225</v>
+        <v>176</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -10160,10 +7592,10 @@
     </row>
     <row r="13" spans="1:16" ht="33">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>226</v>
+        <v>177</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -10171,18 +7603,18 @@
     </row>
     <row r="14" spans="1:16" ht="33">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>227</v>
+        <v>178</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="33">
-      <c r="B15" s="10" t="s">
-        <v>228</v>
+      <c r="B15" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -10190,10 +7622,10 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>229</v>
+        <v>23</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -10201,14 +7633,14 @@
     </row>
     <row r="17" spans="2:3" ht="33">
       <c r="B17" s="2" t="s">
-        <v>230</v>
+        <v>181</v>
       </c>
       <c r="C17">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="6"/>
+      <c r="B18" s="5"/>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="3"/>
